--- a/biology/Botanique/Guizotia/Guizotia.xlsx
+++ b/biology/Botanique/Guizotia/Guizotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guizotia est un genre de plantes à fleurs dicotylédones de la famille des Asteraceae, de la sous-famille des Asteroideae, originaire d'Afrique et de la péninsule arabique, qui comprend neuf espèces acceptées.
-L'espèce-type est Guizotia abyssinica (L.f.) Cass[2].
+L'espèce-type est Guizotia abyssinica (L.f.) Cass.
 Ce sont des plantes annuelles ou vivaces, herbacées ou arbrisseaux, ramifiés, à port dressé, pouvant atteindre deux mètres de haut.
 Une espèce, Guizotia abyssinica, est cultivée pour ses graines oléifères.
 </t>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Guizotia », est une hommage à François Pierre Guillaume Guizot (1787-1874), homme d'État et historien français[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Guizotia », est une hommage à François Pierre Guillaume Guizot (1787-1874), homme d'État et historien français.
 </t>
         </is>
       </c>
@@ -547,13 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon WMRS[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon WMRS :
 Ramtilla DC.
 Veslingia Vis.
-Werrinuwa B.Heyne
-Liste d'espèces
-Selon The Plant List            (18 mars 2019)[5] :
+Werrinuwa B.Heyne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guizotia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guizotia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (18 mars 2019) :
 Guizotia abyssinica (L.f.) Cass.
 Guizotia arborescens Friis
 Guizotia candussioi Cif.
